--- a/streamlit/dados_brutos/job_info_gpt-3.5-turbo_50.xlsx
+++ b/streamlit/dados_brutos/job_info_gpt-3.5-turbo_50.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jovens brilhantes e ambiciosos</t>
+          <t>jovens brilhantes e ambiciosos</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>100% remota</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R$ 3000,00 (contrato de estágio) + R$ 900,00 em benefícios flexíveis</t>
+          <t>R$ 3000,00 (contrato de estágio) + R$ 900,00 em um cartão de benefícios flexíveis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,17 +538,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>não mencionado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Desenvolvimento de produtos de software</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Trabalhar com tecnologias modernas, desenvolver produtos de software, influenciar no desenvolvimento de produto.</t>
+          <t>adquirir conhecimento em tecnologias modernas, desenvolver produtos de software, influenciar o desenvolvimento de produto.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Experiência relevante, habilidades técnicas, liderança, colaboração, resolução de problemas, comunicação, mentalidade orientada a resultados, conhecimento em AWS, Python, JavaScript/TypeScript, Java/Kotlin, estruturas de dados, monitoração e logging, Rest, orientação a eventos, testes unitários e de integração, etc.</t>
+          <t>Experiência relevante, habilidades técnicas, liderança, comunicação, resolução de problemas, mentalidade orientada a resultados, conhecimento em Python, JavaScript/TypeScript, Java/Kotlin, estruturas de dados, Rest, orientação a eventos, testes unitários e de integração, entre outros.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vale Alimentação, Vale Refeição, Auxílio Pet, Plano de Saúde, Plano Odontológico, Seguro de Vida, Previdência, Gympass, Auxílio Babá, Auxílio Creche, Licença Parental Universal, PLR, Desconto em produtos</t>
+          <t>Vale Alimentação, Vale Refeição, Auxílio Pet, Plano de Saúde, Plano Odontológico, Seguro de Vida, Previdência, Gympass, Auxílio Babá, Auxílio Creche, Licença Parental Universal, PLR, Desconto em produtos.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Produtos Digitais Financeiros</t>
+          <t>Desenvolvimento de Plataforma de Crédito, Produtos Digitais Financeiros</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação em ritos da squad, avaliação de impactos, riscos e estimativas de esforços, colaboração com equipes multifuncionais, orientação técnica, evolução técnica dos desenvolvedores.</t>
+          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação no desenho da arquitetura de solução, desenvolvimento de código de alta qualidade, investigação e resolução de problemas técnicos, entre outros.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Habilidades de comunicação, matrícula ativa em curso superior, conhecimentos em Analytics, HTML, inglês para leitura</t>
+          <t>Comunicação, Interesse em aprender, Curso superior em tecnologia, administração, publicidade, marketing, engenharias ou áreas correlatas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vale alimentação e refeição, auxílio home office, plano de saúde, plano odontológico, day off de aniversário, participação nos lucros, seguro de vida, auxílio creche, bônus por indicação, vale-transporte, Clude | Plataforma de Saúde, Total Pass, CRM Bônus</t>
+          <t>Vale alimentação, Vale refeição, Day off de aniversário, Participação nos lucros, Seguro de vida, Vale-transporte, Clude | Plataforma de Saúde, Total Pass</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tecnologia, administração, publicidade, marketing, engenharias ou áreas correlatas</t>
+          <t>Tecnologia, Administração, Publicidade, Marketing, Engenharias ou áreas correlatas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Participar de reuniões, implementar e gerenciar tags e plataformas de Digital Analytics, criar e manter bases de dados, planejar métricas, auxiliar na confecção de dashboards e relatórios, desenvolver análises para clientes.</t>
+          <t>Participar de reuniões, Implementar tags e plataformas de Digital Analytics, Criar bases de dados, Criar documentos instrutivos, Planejar e gerenciar métricas, Auxiliar na confecção de dashboards e relatórios, Desenvolver análises.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Estudante de graduação a partir do 2° semestre, disponibilidade para jornada de 4h ou 6h diárias, curioso e questionador</t>
+          <t>Estudante de graduação ou tecnólogo a partir do 2° semestre, disponibilidade para jornada de 4h ou 6h diárias, ser curioso e questionador</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Não especificado no texto</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Diversas áreas dentro do Santander (Lojas, Corporativo, Atacado)</t>
+          <t>Diversas áreas do banco Santander</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Participar de projetos que transformam o mercado, a sociedade e a vida dos clientes, interagir em projetos importantes para o banco, aprender com a liderança.</t>
+          <t>Desenvolver seu potencial em projetos que transformam o mercado, a sociedade e a vida dos clientes, interagir em projetos importantes para o banco.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em áreas relacionadas, conhecimento em Java, Orientação a Objetos, Hibernate/JPA, bancos de dados, capacidade de atuar em equipe</t>
+          <t>Cursando Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas, Formatura prevista a partir de Junho/2026, Conhecimento em Orientação a Objetos, Java 8+, Spring Boot, Hibernate/JPA, bancos de dados relacionais e NoSQL, capacidade de atuar em equipe e boa comunicação</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -776,27 +776,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auxílio Home Office, Benefício Flexível, acesso a TotalPass, plataforma Vittude, crescimento profissional contínuo, dia de folga no aniversário</t>
+          <t>Auxílio Home Office, Benefício Flexível, acesso a TotalPass, plataforma Vittude, incentivos para cursos e certificações, dia de folga no aniversário</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação, Análise e Desenvolvimento de Sistemas ou áreas correlatas</t>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A partir de junho/2026</t>
+          <t>A partir de Junho/2026</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Desenvolvimento de aplicações Java, arquitetura de microsserviços, documentação técnica, resolução de problemas</t>
+          <t>Desenvolvimento de aplicações Java, microsserviços, digitalização de processos, integração de soluções, Salesforce, Mulesoft</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Desenvolvimento supervisionado de aplicações Java, colaboração em fases do ciclo de vida do software, documentação técnica, resolução de problemas, trabalho com metodologia ágil Scrum.</t>
+          <t>Participar do desenvolvimento de aplicações Java, colaborar com a equipe de desenvolvimento, documentar sistemas e aplicações, resolver problemas das aplicações, trabalhar com a metodologia ágil Scrum.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estágio TI - Desenvolvimento</t>
+          <t>Estágio em TI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Remoto</t>
+          <t>Remoto com presença mensal em Honda São Paulo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tecnologia da informação, Java, Genexus, DB2, Inglês intermediário</t>
+          <t>Cursando graduação em tecnologia da informação, conhecimento em linguagens de programação Java e Genexus, banco de dados DB2 e Cloud, inglês intermediário</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte, Estacionamento</t>
+          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte, Estacionamento, programas de desenvolvimento e conexão</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desenvolvimento de software, Projetos de sistemas</t>
+          <t>Desenvolvimento de software, projetos de sistemas</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Organização da entrega de produtos de software, Aplicação de melhorias práticas de codificação, Gestão de fornecedores externos.</t>
+          <t>Apoio na organização da entrega contínua de produtos de software, apoio aos times de desenvolvedores, gestão de fornecedores externos.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cursando Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas afins com previsão de conclusão para 2026/1, conhecimento básico de Python e JavaScript, familiaridade com React.js, interesse em aprender sobre MongoDB, boa comunicação e habilidades interpessoais</t>
+          <t>Cursando Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas afins com previsão de formatura para 2026/1, conhecimento básico de Python e JavaScript, familiaridade com React.js, interesse em aprendizado de MongoDB, boa comunicação e habilidades interpessoais.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Estágio 30h</t>
+          <t>30h</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Plano de Saúde, Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idioma, Programa de treinamentos internos</t>
+          <t>Plano de Saúde, Plano Odontológico, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino, Programa de treinamentos internos</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas afins</t>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Desenvolvimento e manutenção de infraestrutura backend, suporte a implementação e gerenciamento de bancos de dados, desenvolvimento de interfaces de usuário, colaboração com a equipe de desenvolvimento, participação em reuniões e sessões de brainstorming, manutenção da documentação técnica.</t>
+          <t>Auxiliar no desenvolvimento e manutenção de infraestrutura backend, suportar a implementação e gerenciamento de bancos de dados MongoDB, participar do desenvolvimento de interfaces de usuário, colaborar com a equipe de desenvolvimento, participar de reuniões e sessões de brainstorming, manter a documentação técnica organizada e atualizada.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Estágio 2024 Atacado</t>
+          <t>Estágio Atacado</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Estudante de nível superior a partir do 2º semestre, disponibilidade de 20, 25 ou 30 horas semanais, inglês intermediário</t>
+          <t>Estudante de nível superior, inglês intermediário</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>A partir do 2º semestre da graduação ou 1º semestre de tecnólogo</t>
+          <t>A partir do 2º semestre da graduação</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Participar do propósito de criar oportunidades para a realização das pessoas e desenvolvimento sustentável de empresas e sociedade.</t>
+          <t>Desenvolver-se em diversas áreas, atender grandes investidores, oferecer soluções financeiras inovadoras.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cursando Administração, Logística, Comércio Exterior, Relações Internacionais ou cursos afins, conhecimento intermediário em Pacote Office e inglês desejável</t>
+          <t>Cursando Administração, Logística, Comércio Exterior, Relações Internacionais; Conhecimento intermediário em Pacote Office e inglês desejável</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Vale Transporte, Vale Refeição, Gympass</t>
+          <t>Vale Transporte, Vale Refeição, Wellhub (gympass)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Administração, Logística, Comércio Exterior, Relações Internacionais ou cursos afins</t>
+          <t>Administração, Logística, Comércio Exterior, Relações Internacionais</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Acompanhamento do fluxo de exportação, preparação do pacote de documentos de embarques, acompanhamento de coletas, responsável pelo fluxo de pagamentos dos fornecedores da logística.</t>
+          <t>Acompanhamento do fluxo de exportação, preparação de documentos de embarques, acompanhamento de coletas, responsável pelo fluxo de pagamentos dos fornecedores da logística.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Graduação em andamento, habilidades de comunicação, experiência em redes sociais</t>
+          <t>Graduação em andamento em cursos correlatos a Publicação, Marketing ou Relações Públicas, habilidades de planejamento de comunicação e execução de redes sociais, experiência com plataformas de mídia social relevantes, forte habilidades de comunicação verbal e escrita em português, bom domínio da língua inglesa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cursos correlatos a Publicação, Marketing ou Relações Públicas</t>
+          <t>Publicação, Marketing ou Relações Públicas (graduação em andamento)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Marketing, Branding, Mídias Sociais</t>
+          <t>Marketing, Branding</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Concepção e entrega de estratégias de mídia social, criação de planejamento de postagens, publicação e manutenção de conteúdos, desenvolvimento e gerenciamento de campanhas, análise de desempenho em plataformas de mídia social, identificação de tendências, otimização de conteúdo, pesquisa de ferramentas e técnicas.</t>
+          <t>Auxiliar na concepção e entrega de estratégias de mídia social, criar planejamento e calendário de postagens, publicar e dar manutenção nos conteúdos publicados, auxiliar no desenvolvimento e gerenciamento de novas campanhas, gerar relatórios e analisar desempenho em plataformas de mídia social, auxiliar na identificação de tendências de consumo, otimizar conteúdo para incentivar interação da comunidade, pesquisar e avaliar ferramentas e técnicas para medir atividade nas redes sociais.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Estratégia Corporativa, Pesquisa de Mercado, Construção de Apresentações, Análise de Empresas, Suporte em Projetos de Consultoria</t>
+          <t>Estratégia Corporativa, Pesquisa de Mercado, Construção de Apresentações, Gestão de Informações do Projeto, Análise de Empresas, Suporte em Projetos de Consultoria</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Auxiliar na formulação e implementação de estratégias corporativas, conduzir pesquisas de mercado, elaborar apresentações executivas, organizar e gerenciar informações do projeto, realizar análises financeiras e estratégicas de empresas, participar ativamente de projetos de consultoria.</t>
+          <t>Auxiliar na formulação e implementação de estratégias corporativas, conduzir pesquisas de mercado, elaborar apresentações, organizar e gerenciar informações do projeto, realizar análises financeiras e estratégicas de empresas, participar ativamente de projetos de consultoria.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cursando curso de formação superior, conhecimento em base lógica de programação</t>
+          <t>Cursando curso de formação superior, conhecimento em base lógica de programação</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1205,32 +1205,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mínimo de 2 meses</t>
+          <t>2 a 4 meses</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>não especificados</t>
+          <t>Tutor para auxiliar, possibilidade de participar de qualquer lugar do Brasil</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>nível bacharel ou tecnólogo</t>
+          <t>Formação superior (nível bacharel ou tecnólogo)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>não especificados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Automation, Discovery, Dev Team</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>desenvolver automações, construir telas de front-end, programar back-end, entender processos padronizados, lidar com produtos financeiros, prestar suporte, negociar prioridades, fomentar a missão da área, documentar processos, acompanhar o time de Discovery, desenvolver soluções de alto impacto, garantir estabilidade das soluções.</t>
+          <t>Desenvolver automações, construir telas de front-end, programar back-end, criar processos padronizados, lidar com produtos financeiros, prestar suporte, negociar prioridades, fomentar a missão da área, documentar processos, desenvolver soluções de alto impacto, garantir estabilidade das soluções.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em áreas como marketing, engenharia, administração, data science; habilidades de comunicação, conhecimento em marketing digital</t>
+          <t>Cursando Ensino Superior, habilidades de comunicação, conhecimento em marketing digital</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Plano de saúde, plano odontológico, benefício flex, PPR, licença maternidade e paternidade, entre outros</t>
+          <t>Plano de saúde, plano odontológico, benefício Flash Flex, PPR, licença maternidade e paternidade, entre outros</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ensino Superior</t>
+          <t>Marketing, engenharia, administração, data science</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CRM, marketing digital</t>
+          <t>CRM, marketing</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Planejamento, implementação e análise de desempenho de comunicações, criação de conteúdo, desenvolvimento de relatórios, contribuição para geração de demanda e métricas de CRM.</t>
+          <t>Planejamento, implementação e análise de desempenho de réguas de comunicação, criação de conteúdo, desenvolvimento de relatórios, contribuição na geração de demanda e melhora das métricas de CRM.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modelagem, coleta, limpeza e transformação de dados, suporte na construção e manutenção de pipelines de dados, participação na modelagem de dados para soluções de GenAI, colaboração com equipes multidisciplinares, participação na criação e otimização de bancos de dados e data lakes, apoio na definição e implementação de arquitetura de dados, implementação de políticas de governança de dados e contribuição para a documentação de processos e fluxos de dados.</t>
+          <t>Modelagem, coleta, limpeza e transformação de dados, suporte a construção e manutenção de pipelines de dados, modelagem de dados para soluções de GenAI, colaboração com equipes multidisciplinares, criação e otimização de bancos de dados, apoio na definição e implementação de arquitetura de dados, implementação de políticas de governança de dados, contribuição para documentação dos processos e fluxos de dados</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Disponibilidade 30h semanais, Previsão formatura Dez/2025, Curso superior em ciência, tecnologia, engenharia, matemática ou marketing, Conhecimento Google Ads e Facebook Ads, Inglês intermediário, Habilidade resolução problemas, Trabalho em equipe, Comunicação efetiva</t>
+          <t>Disponibilidade 30h semanais, Formatura Dez/2025, Curso superior em áreas específicas, Inglês intermediário, Conhecimento em Google Ads e Facebook Ads</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1389,7 +1389,11 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30 horas semanais</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Gympass, Horário flexível, Incentivos à capacitação</t>
@@ -1402,17 +1406,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Até Dezembro/2025</t>
+          <t>Dezembro/2025</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mídias de performance</t>
+          <t>Marketing digital, Mídias de performance</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Gestão de mídias pagas, análise de resultados, planejamento de investimento em mídias pagas, gerenciamento de operações diárias, auxílio em projetos simultâneos.</t>
+          <t>Gestão de mídias pagas, análise de resultados, planejamento de investimentos, gerenciamento de operações, auxílio em projetos simultâneos.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1439,12 +1443,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Direito a partir do 2° ano, boa comunicação interpessoal, interesse em aprender sobre o mercado Legal Tech, Excel Intermediário, boas noções de escrita</t>
+          <t>Cursando Direito a partir do 2° ano, boa comunicação interpessoal, interesse em Legal Tech, Excel Intermediário, boas noções de escrita</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1469,12 +1473,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Suporte</t>
+          <t>Suporte, Legal Tech</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Prestar suporte a tickets relacionados a dúvidas, problemas e tarefas de baixa complexidade, proporcionar a melhor experiência possível para os clientes.</t>
+          <t>Prestar suporte a tickets, identificar erros, proporcionar experiência aos clientes.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1501,7 +1505,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Design Gráfico, Conhecimento em Figma, Noções de projetos ágeis, Inglês avançado/fluente</t>
+          <t>Cursando Ensino Superior em Design Gráfico com previsão de conclusão para 2026/1, Conhecimento em Figma, Noções de projetos ágeis, Inglês avançado/fluente para conversação</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1511,12 +1515,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>30h</t>
+          <t>Estágio 30h</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Plano de Saúde, Odontológico, Gympass, Auxílio home office, VR/VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idiomas, Programa de treinamentos internos</t>
+          <t>Plano de Saúde, Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idioma, Programa de treinamentos internos</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1536,7 +1540,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Criar interfaces e experiências inovadoras, Maximizar tempo de desenvolvimento, Participar de diferentes tipos de projetos, Realizar testes de aceitação, Contribuir para o nível de excelência da equipe de Design, Apoiar a realização de pesquisas com os usuários, Desenvolver interfaces funcionais, Atuar com diferentes tipos de projetos e complexidades.</t>
+          <t>Criar interfaces e experiências inovadoras para os usuários, Maximizar tempo de desenvolvimento, Participar de diferentes tipos de projetos, Realizar testes de aceitação com o cliente, Contribuir para o nível de excelência da equipe de Design, Apoiar a realização de pesquisas com os usuários, Desenvolver interfaces funcionais, Atuar com diferentes tipos de projeto.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1563,7 +1567,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Experiência em cobrança ou atendimento ao cliente, habilidades de comunicação, formação em Administração, Gestão Financeira ou Contabilidade</t>
+          <t>Experiência em cobrança ou atendimento ao cliente, habilidades de comunicação, formação em Administração, Gestão Financeira, Contabilidade, conhecimento em SAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1578,12 +1582,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Possibilidade de sociedade, ambiente vibrante, Gympass, plano de saúde e odontológico, seguro de vida</t>
+          <t>Possibilidade de sociedade, ambiente vibrante, aulas de inglês, Gympass, Plano de Saúde e Odontológico, entre outros</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Administração, Gestão Financeira, Contabilidade</t>
+          <t>Administração, Gestão Financeira, Contabilidade ou área relacionada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1615,7 +1619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vendedor - Inside Sales</t>
+          <t>Vendedor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1625,12 +1629,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mentalidade empreendedora, habilidades de comunicação, conhecimento em marketing digital, autonomia, resiliência</t>
+          <t>Mentalidade empreendedora, habilidade de comunicação, conhecimento em marketing digital, autonomia, resiliência</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1655,12 +1659,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Inside Sales</t>
+          <t>Inside Sales, Vendas</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Conduzir todo o processo comercial, executar sequências de contato, desenvolver relacionamentos com clientes, manter registros de atividades de vendas, observar métricas e indicadores.</t>
+          <t>Conduzir processo comercial, executar sequências de contato, desenvolver relacionamentos com clientes, manter registros de atividades de vendas, observar métricas e indicadores.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1687,7 +1691,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Experiência em funções administrativas ou financeiras, conhecimento em software de contabilidade ou ERP SAP 4/Hana, formação em Administração, Gestão Financeira, Contabilidade ou área relacionada</t>
+          <t>Experiência em funções administrativas ou financeiras, conhecimento em software de contabilidade ou ERP SAP 4/Hana, formação acadêmica em Administração, Gestão Financeira, Contabilidade ou áreas relacionadas</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1702,12 +1706,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Administração, Gestão Financeira, Contabilidade ou área relacionada</t>
+          <t>Administração, Gestão Financeira, Contabilidade ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1722,7 +1726,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Processamento de pagamentos, revisão de faturas, conciliações bancárias, relacionamento com fornecedores, organização de documentos, colaboração em auditorias, cumprimento de políticas financeiras e procedimentos internos.</t>
+          <t>Processamento de pagamentos, revisão de faturas, conciliações bancárias, relacionamento com fornecedores, organização de documentos, colaboração em auditorias, cumprimento de políticas e procedimentos.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1753,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Strong academic background, analytical skills, high motivation levels, outstanding interpersonal skills, all disciplines/degrees are welcome, on track to graduate by June 2026</t>
+          <t>Strong academic background, analytical skills, high motivation levels, outstanding interpersonal skills, on track to graduate by June 2026</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1764,12 +1768,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Todos os cursos são bem-vindos</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1779,12 +1783,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Consultoria, Estratégia de Negócios</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Trabalhar em equipe de projeto, entrevistar clientes, identificar fontes de informação, apresentar resultados aos stakeholders.</t>
+          <t>Trabalhar em equipe de projeto, entrevistar clientes, fornecedores e empregadores, identificar fontes de informação, apresentar resultados aos stakeholders.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1811,7 +1815,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Experiência em Customer Success ou Customer Experience, habilidades de comunicação, formação em Marketing, Comunicação, Administração de Empresas</t>
+          <t>Experiência em Customer Success, retenção de clientes, habilidades de comunicação, formação em Marketing, Comunicação ou Administração de Empresas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1826,27 +1830,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, Plano de Saúde e Odontológico, Seguro de vida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Marketing, Comunicação, Administração de Empresas</t>
+          <t>Marketing, Comunicação, Administração de Empresas ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Customer Success, Customer Experience</t>
+          <t>Customer Success, Ouvidoria</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Desenvolver relacionamentos com clientes, entender metas e objetivos, resolver problemas, colaborar com equipes internas, promover experiência aos clientes, gerenciar reclamações, fidelizar clientes.</t>
+          <t>Desenvolver e manter relacionamentos com clientes, entender metas e objetivos dos clientes, resolver problemas e desafios dos clientes, colaborar com equipes internas, promover a melhor experiência ao cliente, gerenciar reclamações e fidelizar clientes.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1888,7 +1892,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1898,7 +1902,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1908,7 +1912,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Trabalho em equipe, coleta e interpretação de dados, entrevistas, supervisão de colegas.</t>
+          <t>Trabalho em equipe, coleta e interpretação de dados, apresentação de resultados, entrevistas, supervisão de colegas.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1925,7 +1929,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Analista de Treinamento Júnior</t>
+          <t>Analista de Treinamento</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1935,7 +1939,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Experiência prévia em lidar com clientes, experiência ou formação em áreas relacionadas ao treinamento e desenvolvimento, habilidades de comunicação eficaz, capacidade de se adaptar a mudanças, orientação para resultados</t>
+          <t>Experiência prévia em lidar com clientes, formação em áreas relacionadas ao treinamento e desenvolvimento, habilidades de comunicação, capacidade de se adaptar a mudanças</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1950,7 +1954,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1965,12 +1969,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Treinamento, desenvolvimento, educação</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Prestar suporte para os clientes, propor soluções de desenvolvimento, atualizar e analisar indicadores de capacitação, organizar a operacionalização das turmas, acompanhar aulas online.</t>
+          <t>Prestar suporte para os clientes, propor soluções de desenvolvimento, atualizar e analisar indicadores, organizar a operacionalização das turmas, acompanhar aulas online.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1997,7 +2001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Desenvolvimento de habilidades analíticas</t>
+          <t>Desenvolvimento de habilidades analíticas, influenciar entregas de projetos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2017,22 +2021,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Consultoria Estratégica</t>
+          <t>Consultoria estratégica</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Desenvolver pilares fundamentais para a carreira de consultor, influenciar entregas dos projetos, desenvolver habilidades analíticas.</t>
+          <t>Auxiliar tomada de decisões, desenvolvimento de projetos estratégicos, supply chain, desenvolvimento de novos produtos.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2059,7 +2063,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cursando Administração, Ciências Contábeis, Engenharia da Produção ou áreas correlatas. Conhecimento em Pacote Office, principalmente Excel. Desejável conhecimento em Google Workspace e no Sistema SAP.</t>
+          <t>Cursando Administração, Ciências Contábeis, Engenharia da Produção ou áreas correlatas; Conhecimentos em Pacote Office, principalmente Excel; Desejável conhecimento em Google Workspace e Sistema SAP; Habilidades organizacionais, boa comunicação, capacidade analítica, atenção aos detalhes e proatividade</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2074,7 +2078,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auxílio-refeição, Auxílio-alimentação, Vale-transporte, Desconto em produtos, Seguro de vida, Convênio com Gympass e ZenClub, Day off na semana do aniversário, Home Office, Ajuda de custo para Home Office, Possibilidade de efetivação, Programa de desenvolvimento de carreira, Equilíbrio entre vida acadêmica e estágio, Ambiente informal e alegre.</t>
+          <t>Auxílio-refeição, Auxílio-alimentação, Vale-transporte, Desconto em produtos, Seguro de vida, Convênio com Gympass e ZenClub, Day off na semana do aniversário, Home Office, Ajuda de custo para Home Office, Possibilidade de efetivação, Programa de desenvolvimento de carreira, Ambiente informal e alegre</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2084,17 +2088,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pós julho de 2025</t>
+          <t>Pós Julho de 2025</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Administrativo Financeiro na Área de Expansão de Lojas</t>
+          <t>Administrativo e Financeiro</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Auxiliar nas rotinas administrativas e financeiras, controle de pagamento, conferência de dados financeiros, análise de desempenho financeiro dos contratos, cumprimento dos fluxos de procedimentos administrativos e financeiros, suporte nas atividades da área.</t>
+          <t>Auxiliar nas Rotinas Administrativas e Financeiras, Controle de Pagamento, Conferência de Dados Financeiros, Análise de Desempenho Financeiro dos Contratos, Cumprimento dos Fluxos de Procedimentos Administrativos e Financeiros, Suporte nas Atividades da Área.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2121,7 +2125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior (a partir do 1º ano), interesse por mercado financeiro e/ou mercado de capitais, conhecimento intermediário em Pacote Office, inglês básico</t>
+          <t>Cursando Ensino Superior, interesse em mercado financeiro, conhecimento intermediário em Pacote Office, inglês básico</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2146,17 +2150,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>A partir do 1º ano</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DCM - Estruturação</t>
+          <t>DCM, Estruturação, Mercado Financeiro, Mercado de Capitais</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Suporte ao time de DCM - Estruturação, participação e suporte em todo o processo de originação, estruturação e distribuição de ativos financeiros, participação em calls, uso de ferramentas do time de DCM, habilidades em resolver problemas, boa análise crítica, flexibilidade, organização e atenção aos detalhes.</t>
+          <t>Suporte ao time de DCM, participação e suporte em originação, estruturação e distribuição de CRI, CRA, FIDC, FIAgros e Debêntures, participação em calls, uso de ferramentas do time de DCM, resolução de problemas, comunicação em equipe, análise crítica, flexibilidade, organização e atenção aos detalhes.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2173,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Summer Job (Voluntário)</t>
+          <t>Summer Job Voluntário</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2183,7 +2187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ter no mínimo 18 anos, matrícula ativa em uma Universidade, disponibilidade para participar de um ciclo de voluntariado de 5 semanas, querer se desenvolver em vendas, interesse por trabalho voluntário</t>
+          <t>Ter no mínimo 18 anos, estar matriculado em uma universidade, disponibilidade para 5 semanas de voluntariado, interesse em vendas e trabalho voluntário</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2193,32 +2197,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15h semanais (segunda à sexta)</t>
+          <t>15h semanais</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Experiência Profissional Voluntária, Networking, Desenvolvimento de habilidades, Mentoria de Carreira, Participação de Banca Final, Premiações Exclusivas</t>
+          <t>Experiência profissional voluntária, networking, desenvolvimento de habilidades, mentoria de carreira, premiações exclusivas</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Liderança na Prática</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Vendas, Autoliderança, Trabalho em equipe, Gestão de projetos, Comunicação</t>
+          <t>Vendas, operações, divulgação</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Vendas, Operações, Divulgação</t>
+          <t>Vendas, operações, divulgação</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2230,7 +2234,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Galapagos</t>
+          <t>Galápagos Capital</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2245,7 +2249,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cursando Marketing ou Publicidade e Propaganda (06 ao 08 semestre), Conhecimento em ferramentas de marketing digital e design gráfico, habilidades de comunicação verbal e escrita, conhecimento em marketing digital e ferramentas de análise.</t>
+          <t>Cursando Marketing ou Publicidade e Propaganda (06 ao 08 semestre), Conhecimento em ferramentas de marketing digital e design gráfico, habilidades de comunicação, proatividade</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2275,7 +2279,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Marketing, Publicidade e Propaganda</t>
+          <t>Marketing, Publicidade, Design Gráfico</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2297,7 +2301,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Estágio de Product Owner</t>
+          <t>Estágio em Engenharia Química</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2307,7 +2311,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cursando Engenharia, previsão de formatura para 2026/2, inglês avançado</t>
+          <t>Cursando ensino superior em Engenharia, previsão de formatura para 2026/2, inglês avançado, interesse em ciência de dados</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2337,12 +2341,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Engenharia, Química, Petroquímica</t>
+          <t>Engenharia, Desenvolvimento de Software, Produtos, TI Industrial, Consultoria</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Atuar em projetos de desenvolvimento de software, discutir e transcrever requisitos em inglês, apoiar o time de desenvolvimento, analisar e solucionar problemas.</t>
+          <t>Atuar em projetos de desenvolvimento de software para a indústria de Química e Petroquímica, discutir, entender e transcrever requisitos em inglês, apoiar o time de desenvolvimento em dúvidas de negócio e usabilidade, analisar e solucionar problemas.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2369,7 +2373,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificados no texto</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2379,32 +2383,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificada no texto</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificados no texto</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Consultoria em alta gestão</t>
+          <t>Consultoria estratégica</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Não especificadas</t>
+          <t>Não especificadas no texto</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2431,7 +2435,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ensino superior, previsão de formatura, cursos prioritários, postura curiosa e criativa, perfil colaborativo, disponibilidade para modelo híbrido/presencial</t>
+          <t>Matriculado no ensino superior, previsão de formatura entre dezembro de 2025 e dezembro de 2026, cursos prioritários, postura curiosa e criativa, perfil colaborativo, disponibilidade para estágio híbrido/presencial</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2461,12 +2465,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Projetos de diferentes indústrias e clientes</t>
+          <t>Diferentes indústrias e clientes</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Atuar em projetos, elaborar estratégias, trabalhar com tecnologias, integrar times, estar alinhado aos valores da empresa, trabalhar em ambiente colaborativo e dinâmico, excelência na entrega e inovação.</t>
+          <t>Atuar em projetos, elaborar estratégias, trabalhar com tecnologias, integrar times, desenvolvimento contínuo, relacionar-se com principais organizações do Brasil.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2493,7 +2497,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Candidatura simplificada, carreira desafiadora</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2523,12 +2527,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+          <t>Consultoria estratégica</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Compor o time de Summer Interns e Interns, participar de Processo Seletivo via Webinar.</t>
+          <t>Não especificadas</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2555,7 +2559,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ensino Superior em andamento, Boas habilidades com o Pacote Office, Disponibilidade para atuar em formato de trabalho híbrido em Porto Alegre/RS, Proatividade, Comunicação, Flexibilidade, Organização, Bom relacionamento interpessoal</t>
+          <t>Ensino Superior em andamento, habilidades com Pacote Office, proatividade, comunicação, flexibilidade, organização, bom relacionamento interpessoal</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2570,7 +2574,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vale Refeição, Vale Transporte, Academia com TotalPass, Um dia de folga no mês do aniversário, Desconto de 60% em livros</t>
+          <t>Vale Refeição, Vale Transporte, Academia (TotalPass), folga no mês do aniversário, desconto em livros</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2585,12 +2589,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Recursos Humanos, Atração e Seleção, Desenvolvimento</t>
+          <t>Recursos Humanos, Desenvolvimento, Atração e Seleção</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Encontrar, qualificar e nutrir relacionamento com talentos, Mapear talentos no mercado, Realizar entrevistas por competências, Auxiliar no processo de admissão, Apoiar em questões de People Analytics, Gerir plataformas de seleção.</t>
+          <t>Encontrar, qualificar e nutrir relacionamento com talentos, mapear talentos no mercado, realizar entrevistas, auxiliar no processo de admissão, gerir plataformas de seleção.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2602,7 +2606,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Banco ABC Brasil S/A</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2617,17 +2621,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Manipulação de dados, pacotes econométricos, programação em R, cursando graduação em economia, engenharia, matemática ou estatística, inglês avançado</t>
+          <t>Habilidade com manipulação de dados, conhecimentos em métodos quantitativos, cursando graduação em economia, engenharia, matemática ou estatística, conclusão a partir de dezembro/2025, inglês avançado</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Horário de estágio a combinar, preferencialmente das 09h às 16h, presencial</t>
+          <t>Horário a combinar, preferencialmente das 09h às 16h, presencial</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2637,22 +2641,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Economia, engenharia, matemática ou estatística</t>
+          <t>Economia, Engenharia, Matemática ou Estatística</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Preferencialmente conclusão em dezembro/2025 em diante</t>
+          <t>Preferencialmente conclusão a partir de dezembro/2025</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Macro economia, tesouraria</t>
+          <t>Macroconomia/Tesouraria</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio a análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatizar rotinas, planilhas e apresentações do departamento econômico e da tesouraria.</t>
+          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio em análises para mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatização de rotinas, planilhas e apresentações do departamento econômico e da tesouraria</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2689,7 +2693,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6h/dia</t>
+          <t>6h/dia por 2 anos</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2699,12 +2703,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática</t>
+          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2714,7 +2718,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Desenvolver habilidades importantes, participar do dia a dia do negócio, aprimorar o lado inovador e resiliente, seguir os comportamentos da empresa.</t>
+          <t>Desenvolver habilidades importantes, vivência do dia a dia do negócio, participar de dinâmicas e entrevistas individuais, atuar de forma colaborativa e responsável.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2741,22 +2745,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Superior em Psicologia ou áreas afins, disponibilidade para estagiar 6hs diárias em horário comercial, conhecimentos intermediário/avançado de pacote office, inglês intermediário/avançado</t>
+          <t>Superior em Psicologia ou áreas afins, disponibilidade para estagiar 6hs diárias, conhecimentos de pacote office, inglês intermediário/avançado</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6hs diárias em horário comercial</t>
+          <t>6 horas diárias em horário comercial</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dia de folga no mês do aniversário, telemedicina, apoio psicológico, assistência médica e odontológica, auxílio-internet, vale refeição/alimentação, pacote de benefícios flexíveis</t>
+          <t>Plataformas de aprendizado online, plano de mentoria, dia de folga no mês do aniversário, assistência médica e odontológica, auxílio-internet, vale refeição/alimentação</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2776,7 +2780,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Apoio no Onboarding de estagiários/staff, suporte em relatórios e cadastro de informações, acompanhamento e cobranças de pendências, atendimento e suporte aos clientes internos.</t>
+          <t>Apoiar no Onboarding de estagiários/staff, suporte em relatórios e cadastro de informações, acompanhamento e cobranças de pendências, atendimento e suporte aos clientes internos.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2803,12 +2807,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cursando Engenharia (Mecânica, Elétrica, Química, Produção ou Metalúrgica), Inglês avançado, Conhecimento em Pacote Office, Disponibilidade para viagens: Não</t>
+          <t>Cursando superior em Engenharia (Mecânica, Elétrica, Química, Produção ou Metalúrgica), Inglês avançado, Conhecimento em Pacote office, Disponibilidade para viagens: Não</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2823,7 +2827,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Engenharia (Mecânica, Elétrica, Química, Produção ou Metalúrgica)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2838,7 +2842,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Auxiliar os analistas na interface com fornecedores, Follow ups das ocorrências, Elaboração de relatórios, Emissão de controle de lote inicial.</t>
+          <t>Auxiliar analistas na interface com fornecedores, follow ups de ocorrências, elaboração de relatórios, emissão de controle de lote inicial.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Estágio</t>
+          <t>Programa de Estágio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2865,27 +2869,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática, disponibilidade de 6h/dia por 2 anos, residir em São Paulo/SP, estar conectado aos valores e comportamentos da Eneva</t>
+          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins, disponibilidade de 6h/dia por 2 anos, residir em São Paulo/SP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
+          <t>Salário a combinar, Bolsa auxílio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6 horas por dia</t>
+          <t>6h/dia por 2 anos</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
+          <t>Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática</t>
+          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2895,12 +2899,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Backoffice, Novos Negócios, Portfólio</t>
+          <t>Backoffice, Novos Negócios e Portfólio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Colocar em prática aprendizado acadêmico, desenvolver habilidades, participar das etapas do programa de estágio, seguir os comportamentos da empresa.</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2927,7 +2931,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Estudantes de Administração, Economia, Contabilidade, Engenharia ou cursos relacionados, turno da noite, formatura em 1,5 anos ou mais, inglês fluente</t>
+          <t>Estudantes de cursos relacionados a negócios, economia, contabilidade, engenharia, turno noturno, previsão de formatura em 1,5 anos ou mais, inglês fluente</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2947,7 +2951,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Administração, Economia, Contabilidade, Engenharia</t>
+          <t>Negócios, Economia, Contabilidade, Engenharia</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2962,7 +2966,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fornecer uma ampla gama de produtos relacionados a empréstimos e serviços financeiros para grandes empresas e instituições financeiras multinacionais, construir relacionamentos de longo prazo, conhecimento em Finanças Corporativas, comunicação, presença comercial, conhecimento macroeconômico, foco no cliente, trabalho em equipe e responsabilidade.</t>
+          <t>Prover uma ampla gama de produtos relacionados a empréstimos e serviços financeiros para grandes empresas e instituições financeiras. Concentra-se em construir relacionamentos de longo prazo com grandes corporações multinacionais.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2989,12 +2993,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Graduação em Administração, Tecnologia, Engenharias e/ou correlatas, Conhecimento básico em SQL, Phyton, PySpark e Power Querry (diferencial)</t>
+          <t>Graduação em Administração, Tecnologia, Engenharias e/ou correlatas; Conhecimento básico em SQL, Phyton, PySpark e Power Querry (diferencial)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3009,7 +3013,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Administração, Tecnologia, Engenharias</t>
+          <t>Administração, Tecnologia, Engenharias e/ou correlatas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3019,12 +3023,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Qualidade, Analytics e Dados</t>
+          <t>Qualidade (Analytics e Dados)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Auxiliar na apuração e construção de Dashboard em Power BI, Auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark), Auxiliar no mapeamento da experiência do cliente.</t>
+          <t>Auxiliar na apuração e construção de Dashboard em Power BI; Auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark); Auxiliar no mapeamento da experiência do cliente.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3051,7 +3055,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pessoas com deficiência com CID homologado</t>
+          <t>Pessoa com deficiência com CID homologado</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3066,7 +3070,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Vale-refeição, plano de saúde, plano odontológico, Total Pass, PPR, Tô de Dono/a, Uni Agi, folga de aniversário, Sem Climão, avaliação de performance, teleatendimento psicológico e médico, licença-maternidade e paternidade, Dr. Pet</t>
+          <t>Vale-refeição, plano de saúde, plano odontológico, Total Pass, PPR, Programa de sócios, Universidade interna, folga de aniversário, pesquisa semanal de clima, avaliação de performance, teleatendimento psicológico e médico, licença-maternidade e paternidade, Dr. Pet</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3081,12 +3085,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Não especificadas</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Trabalhar no Agibank, atender clientes, oferecer acolhimento, entender o impacto na vida das pessoas, incluí-las digital e financeiramente.</t>
+          <t>Não especificadas</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3113,7 +3117,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marketing digital, Google planilhas, inglês intermediário</t>
+          <t>30 horas semanais, Previsão de formatura até Dezembro/2025, Conhecimento técnico em marketing digital e desenvolvimento web, Inglês intermediário</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3123,12 +3127,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pelo menos 30 horas semanais</t>
+          <t>30 horas semanais</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Gympass, horário flexível, incentivos à capacitação</t>
+          <t>Trabalho remoto, Gympass, Horário flexível, Incentivos à capacitação</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3148,7 +3152,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Gerenciar carteira de clientes, representar a empresa, criar indicadores de saúde dos clientes, identificar oportunidades de cross sell e upsell, propor melhorias nos processos de customer success.</t>
+          <t>Gerenciar carteira de clientes, Representar a empresa, Criar e monitorar indicadores de saúde dos clientes, Identificar oportunidades de cross sell e upsell, Propor melhorias nos processos de customer success.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3175,7 +3179,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ensino superior em administração, comércio exterior, engenharia de produção, gestão comercial, marketing ou áreas afins, ambiente remoto adequado, afinidade com plataformas digitais, boa comunicação e capacidade de negociação</t>
+          <t>Ambiente remoto adequado, cursando ensino superior em administração, comércio exterior, engenharia de produção, gestão comercial, marketing ou áreas afins, afinidade com plataformas digitais, boa comunicação e capacidade de negociação</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3195,7 +3199,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Administração, Comércio Exterior, Engenharia de Produção, Gestão Comercial, Marketing ou áreas afins</t>
+          <t>Ensino superior em administração, comércio exterior, engenharia de produção, gestão comercial, marketing ou áreas afins</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3205,12 +3209,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>SDR Pré-vendas B2B</t>
+          <t>SDR, Pré-vendas, B2B</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Conhecer mercado imobiliário, mapear oportunidades, ativar potenciais parceiros, qualificar leads, conectar pré-venda com desenvolvedores, observar métricas, contribuir para jornada do cliente.</t>
+          <t>Conhecer mercado imobiliário, mapear oportunidades, ativar potenciais parceiros, qualificar leads, conectar pré-venda com desenvolvedores, observar métricas, contribuir para jornada de cliente.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3237,7 +3241,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Graduação em andamento na área de Ciências Agrárias, disponibilidade para estar presente no laboratório</t>
+          <t>Graduação em Ciências Agrárias do 4º ao 8º período, interesse na área comercial e disponibilidade para estar presente em MG ou SP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3262,7 +3266,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Preferencialmente do 4º ao 8º período</t>
+          <t>Do 4º ao 8º período</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3272,7 +3276,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Apoio nos processos de vendas internas, contato direto com clientes, acompanhamento de pedidos, suporte ao pós-venda, aprender sobre produtos e serviços oferecidos pelo laboratório, entender necessidades dos clientes do setor de pecuária e agricultura.</t>
+          <t>Apoio em processos de vendas internas, contato direto com clientes, acompanhamento de pedidos, suporte ao pós-venda, aprendizado sobre produtos e serviços oferecidos pelo laboratório, entendimento das necessidades dos clientes do setor de pecuária e agricultura.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3299,7 +3303,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cursando Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas relacionadas. Conhecimento básico em linguagens de programação. Familiaridade com arquitetura de software e design patterns. Boa capacidade de resolução de problemas e pensamento analítico. Habilidades de comunicação e organização.</t>
+          <t>Cursando Ensino Superior, conhecimento em linguagens de programação, familiaridade com arquitetura de software, habilidades de resolução de problemas e trabalho em equipe</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3314,7 +3318,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Refeição e Alimentação, Plano de Saúde, Plano Odontológico, Gympass, Psicologia Viva, Saúde Financeira, Parceria com escolas de idiomas, Descontos em cursos de instituições renomadas.</t>
+          <t>Plano de saúde, plano odontológico, Gympass, Psicologia Viva, saúde financeira, parcerias com escolas de idiomas e redes de ensino</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3334,7 +3338,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Auxiliar na análise e definição de arquiteturas de software, colaborar com a equipe de desenvolvimento, contribuir para a documentação de arquitetura, participar de revisões de código, apoiar na resolução de problemas e otimização de performance, manter-se atualizado com as melhores práticas em arquitetura de software.</t>
+          <t>Auxiliar na análise e definição de arquiteturas de software, colaborar com a equipe de desenvolvimento, contribuir para documentação de arquitetura, participar de revisões de código, apoiar na resolução de problemas e otimização de performance, manter-se atualizado com melhores práticas em arquitetura de software</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3361,7 +3365,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Conhecimento em metodologias ágeis, padrões de projeto, arquitetura de sistemas e em pelo menos uma linguagem de programação e framework.</t>
+          <t>Conhecimento básico em metodologias ágeis, padrões de projeto e arquitetura de sistemas, conhecimento básico em pelo menos uma linguagem de programação e framework</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3369,10 +3373,14 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Não especificada</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3382,7 +3390,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3392,7 +3400,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Desenvolvimento front-end e/ou back-end, correção de bugs, definição de tecnologias, implementação de novas ferramentas, compartilhamento de conhecimento.</t>
+          <t>Desenvolvimento front-end e/ou back-end, correção de bugs e melhoria contínua, definição de melhores tecnologias, propor e implementar novas ferramentas, compartilhar e evoluir o conhecimento técnico do time.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3419,7 +3427,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Graduação a partir do 6º período, Conhecimento em alguma linguagem de programação, Inglês avançado</t>
+          <t>Graduação a partir do 6º período, Conhecimento em alguma linguagem de programação (.NET, Python, PHP, Java, C#, VBA, VB Script), Inglês avançado</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3434,7 +3442,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Participação nos lucros, Plano de Saúde, Plano Odontológico, Gympass, Cartão de benefícios flexíveis, Zenklub, Programa de Idiomas, Parceria com FIAP Escola de Tecnologia, Trabalho Remoto, Programa de treinamento, Plano de carreira definido, Horário flexível, Programa de mentoria, Licença parental de 6 meses</t>
+          <t>Participação nos lucros e resultados, Plano de Saúde, Plano Odontológico, Gympass, Cartão de benefícios flexíveis, Zenklub, Programa de Idiomas, Parceria com FIAP Escola de Tecnologia, Trabalho Remoto, Programa de treinamento, Plano de carreira definido, Horário flexível, Programa de mentoria, Licença parental de 6 meses</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3454,7 +3462,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Desenvolver soluções em RPA, Contribuir para entrega de soluções de automação, Programar no dia a dia.</t>
+          <t>Desenvolver soluções em RPA, contribuir para a entrega de soluções de automação, usar paixão e vontade de programar.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3481,7 +3489,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cursando Engenharia de Processos, Mecânica, Automação ou áreas correlatas com formação prevista para a partir de 2025/2, Inglês Avançado/Fluente, Excel Intermediário/Avançado, Conhecimentos da indústria de Óleo &amp; Gás e Conhecimentos básicos de automação</t>
+          <t>Cursando Engenharia de Processos, Mecânica, Automação ou áreas correlatas com formação prevista para a partir de 2025/2, Inglês Avançado/Fluente, Excel Intermediário/Avançado, Conhecimentos da indústria de Óleo &amp; Gás e Conhecimentos básicos de automação.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3516,7 +3524,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Apoiar no mapeamento e prospecção de oportunidades, Realizar pesquisas de mercado e ações de pré-venda, Elaborar e apresentar propostas técnicas-comerciais, Acompanhar a equipe técnica nas estimativas de recursos, Representar a empresa em visitas técnicas e reuniões, Apoiar na construção, formalização e conclusão de propostas comerciais, Elaborar materiais de divulgação de soluções.</t>
+          <t>Mapeamento e prospecção de oportunidades, Pesquisas de mercado, Elaboração e apresentação de propostas técnicas-comerciais, Acompanhamento de equipe técnica, Representação da empresa em visitas e reuniões, Apoio na construção de propostas comerciais e orçamentárias, Elaboração de materiais de divulgação de soluções.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3543,7 +3551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Formatura a partir de Dez/25, capacidade analítica e criativa, pró-atividade, boa comunicação, Excel &amp; PowerPoint avançado, Inglês avançado, SQL e Python são diferenciais</t>
+          <t>Formatura a partir de Dez/25, capacidade de resolução de problemas, pro atividade, boa comunicação, Excel &amp; PowerPoint avançado, Inglês avançado, SQL e Python são diferenciais</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3568,7 +3576,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>A partir de Dez/25</t>
+          <t>Formatura a partir de Dez/25</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3578,7 +3586,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Elaborar modelos de projeção de receita e custos, elaborar modelos de projeção por canais de marketing, auxiliar na resolução de problemas, acompanhar a performance de testes de Growth, automatizar processos recorrentes, explicar resultados e alinhar planos de ação, elaborar apresentações.</t>
+          <t>Elaborar modelos de projeção de receita e custos, elaborar modelos de projeção por canais de marketing, auxiliar na resolução de problemas, acompanhar a performance de testes de Growth, automatizar processos recorrentes, explicar resultados e alinhar planos de ação.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
